--- a/Output_of_NUS_Parse/verified_Ref_classification_samples2Nov.xlsx
+++ b/Output_of_NUS_Parse/verified_Ref_classification_samples2Nov.xlsx
@@ -434,7 +434,7 @@
           <t xml:space="preserve">author: Davis JT, Allen HD, Powers JD.
 title: Population requirements for capitation planning in cardiac surgery.
 title: Arch Pediatr Adolesc Med.
-year: 1996;150
+location: 1996;150:257–259.
 </t>
         </is>
       </c>
@@ -475,7 +475,7 @@
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
-title: Chicago
+title: Chicago:
 title: The University of Chicago Press;
 year: 1958.
 </t>
@@ -518,11 +518,11 @@
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, Crandall ED.
-title: Quantitative aspects of capillary CO2 exchange. Respiratory Physiology
-title: In
-editor: New York, NY
-editor: Marcel Dekker;
-year: 1989
+title: Quantitative aspects of capillary CO2 exchange. Respiratory Physiology: An Analytical Approach.
+title: In: Chang HR, Paiva M, eds. 2nd ed.
+title: New York, NY:
+publisher: Marcel Dekker;
+title: 1989:371-419.
 </t>
         </is>
       </c>
@@ -562,10 +562,10 @@
       <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
-title: 2015.
+year: 2015.
 title: “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
 title: The New York Times,
-title: September 7, 2015.
+edition: September 7, 2015.
 </t>
         </is>
       </c>
@@ -605,7 +605,7 @@
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-title: In
+title: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -647,8 +647,8 @@
           <t xml:space="preserve">author: Youssef NM
 title: (1988).
 title: School adjustment of children with congenital heart disease [dissertation].
-editor: Pittsburgh, PA
-title: University of Pittsburgh.
+title: Pittsburgh, PA:
+publisher: University of Pittsburgh.
 </t>
         </is>
       </c>
@@ -688,10 +688,10 @@
       <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
-title: 1996.
+year: 1996.
 title: "Population requirements for capitation planning in cardiac surgery."
-title: Arch Pediatr Adolesc Med. 150, no.2,
-location: 257–259.
+booktitle: Arch Pediatr Adolesc Med. 150, no.2,
+proceeding: 257–259.
 </t>
         </is>
       </c>
@@ -732,8 +732,8 @@
         <is>
           <t xml:space="preserve">author: Davenport, H.W.
 title: The ABC of Acid-Base Chemistry.
-title: 1958.
-location: Chicago
+year: 1958.
+title: Chicago:
 title: The University of Chicago Press.
 </t>
         </is>
@@ -777,13 +777,13 @@
       <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
-title: 1989.
+year: 1989.
 title: "Quantitative aspects of capillary CO2 exchange."
-location: In Respiratory Physiology
-title: edited by HR Chang, and M Paiva,
+title: In Respiratory Physiology: An Analytical Approach.
+editor: edited by HR Chang, and M Paiva,
 edition: 371–419.
-editor: New York, NY
-editor: Marcel Dekker.
+publisher: New York, NY:
+publisher: Marcel Dekker.
 </t>
         </is>
       </c>
@@ -823,10 +823,10 @@
       <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
-title: 2015.
+year: 2015.
 title: “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
 title: The New York Times,
-title: September 7, 2015.
+edition: September 7, 2015.
 </t>
         </is>
       </c>
@@ -869,7 +869,7 @@
           <t xml:space="preserve">author: Weber KJ, and J Lee, and R Decresce.
 title: 2004. 6 April 2004.
 title: "Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success."
-location: In
+title: In: 25th Annual
 title: American Association of Endocrine Surgeons Meeting, Charlottesville, VA,
 </t>
         </is>
@@ -911,11 +911,11 @@
       <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
-title: 1988.
+year: 1988.
 title: "School Adjustment of Children with Congenital Heart Disease."
-location: PhD.
-title: diss., Pittsburgh, PA
-title: University of Pittsburgh.
+title: PhD.
+title: diss., Pittsburgh, PA:
+publisher: University of Pittsburgh.
 </t>
         </is>
       </c>
@@ -958,7 +958,7 @@
 title: (1996). 150(2),
 title: Population requirements for capitation planning in cardiac surgery.
 title: Arch Pediatr Adolesc Med,
-location: 257–259.
+proceeding: 257–259.
 </t>
         </is>
       </c>
@@ -1000,7 +1000,7 @@
           <t xml:space="preserve">author: Davenport, H.W.
 title: (1958).
 title: The ABC of acid-base chemistry.
-location: Chicago
+title: Chicago:
 title: The University of Chicago Press.
 </t>
         </is>
@@ -1047,10 +1047,10 @@
 title: (1989).
 title: Quantitative aspects of capillary CO2 exchange.
 title: In H.R. Chang, &amp; M. Paiva (Eds.).
-pages: Respiratory physiology
-location: (371–419).
-editor: New York, NY
-editor: Marcel Dekker.
+title: Respiratory physiology: An analytical approach
+edition: (371–419).
+publisher: New York, NY:
+publisher: Marcel Dekker.
 </t>
         </is>
       </c>
@@ -1175,9 +1175,9 @@
           <t xml:space="preserve">author: Youssef NM.
 title: (1988).
 title: School adjustment of children with congenital heart disease (PhD.
-title: Thesis).
-editor: Pittsburgh, PA
-title: University of Pittsburgh.
+pages: Thesis).
+publisher: Pittsburgh, PA:
+publisher: University of Pittsburgh.
 </t>
         </is>
       </c>
@@ -1218,7 +1218,7 @@
           <t xml:space="preserve">author: Davis JT, Allen HD, Powers JD.
 title: Population requirements for capitation planning in cardiac surgery.
 title: Arch Pediatr Adolesc Med.
-year: 1996;150
+location: 1996;150:257–259.
 </t>
         </is>
       </c>
@@ -1259,7 +1259,7 @@
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
-title: Chicago
+title: Chicago:
 title: The University of Chicago Press;
 year: 1958.
 </t>
@@ -1302,9 +1302,9 @@
         <is>
           <t xml:space="preserve">author: Bidani A, Crandall ED.
 title: Quantitative aspects of capillary CO2 exchange.
-title: In
-editor: Marcel Dekker;
-year: 1989
+title: In: Chang HR, Paiva M, eds. Respiratory Physiology: An Analytical Approach. New York, NY:
+publisher: Marcel Dekker;
+booktitle: 1989:371-419.
 </t>
         </is>
       </c>
@@ -1345,7 +1345,7 @@
           <t xml:space="preserve">author: Baker P.
 title: Obama orders federal contractors to provide workers paid sick leave.
 title: The New York Times,
-title: September 7, 2015.
+edition: September 7, 2015.
 </t>
         </is>
       </c>
@@ -1385,7 +1385,7 @@
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-title: In
+title: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -1426,8 +1426,8 @@
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: School Adjustment of Children with Congenital Heart Disease [dissertation].
-title: Pittsburgh, PA
-title: University of Pittsburgh;
+title: Pittsburgh, PA:
+publisher: University of Pittsburgh;
 year: 1988.
 </t>
         </is>
@@ -1469,9 +1469,9 @@
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
 title: "Population Requirements for Capitation Planning in Cardiac Surgery."
-title: Arch Pediatr Adolesc Med 150.2
-location: (1996)
-location: 257–259.
+location: Arch Pediatr Adolesc Med 150.2
+journal: (1996):
+proceeding: 257–259.
 </t>
         </is>
       </c>
@@ -1511,7 +1511,7 @@
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
-title: Chicago
+title: Chicago: The University of Chicago Press,
 year: 1958.
 </t>
         </is>
@@ -1556,10 +1556,10 @@
         <is>
           <t xml:space="preserve">author: Bidani A, and Crandall ED.
 title: "Quantitative aspects of capillary CO2 exchange."
-title: Respiratory Physiology
+title: Respiratory Physiology: An Analytical Approach.
 title: Ed. Chang HR, and M Paiva.
-title: New York, NY
-editor: Marcel Dekker,
+publisher: New York, NY:
+publisher: Marcel Dekker,
 year: 1989.
 title: 371-419.
 </t>
@@ -1602,7 +1602,7 @@
           <t xml:space="preserve">author: Baker P.
 title: "Obama orders federal contractors to provide workers paid sick leave."
 title: The New York Times,
-title: September 7, 2015.
+edition: September 7, 2015.
 </t>
         </is>
       </c>
@@ -1682,7 +1682,7 @@
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: School Adjustment of Children with Congenital Heart Disease.
-title: PhD Diss. Pittsburgh, PA
+title: PhD Diss. Pittsburgh, PA: University of Pittsburgh,
 year: 1988.
 </t>
         </is>
@@ -1723,10 +1723,10 @@
       <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis, JT, Allen, HD, and Powers, JD
-title: (1996)
+year: (1996)
 title: 'Population Requirements for Capitation Planning in Cardiac Surgery.'
-title: Arch Pediatr Adolesc Med 150,
-location: 257–259.
+booktitle: Arch Pediatr Adolesc Med 150,
+proceeding: 257–259.
 </t>
         </is>
       </c>
@@ -1766,10 +1766,10 @@
       <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW (
-title: 1958)
+year: 1958)
 title: The ABC of Acid-Base Chemistry
 title: (Chicago, The
-title: University of Chicago Press).
+editor: University of Chicago Press).
 </t>
         </is>
       </c>
@@ -1809,9 +1809,9 @@
       <c r="G34" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and Crandall, ED
-title: (1989)
-title: 'Quantitative Aspects of Capillary CO2 Exchange' in HR Chang, and M Paiva (eds), Respiratory Physiology
-editor: York, NY
+year: (1989)
+title: 'Quantitative Aspects of Capillary CO2 Exchange' in HR Chang, and M Paiva (eds), Respiratory Physiology: An Analytical Approach (New
+title: York, NY:
 location: Marcel Dekker).
 </t>
         </is>
@@ -1853,7 +1853,7 @@
           <t xml:space="preserve">author: Baker P.
 title: 'Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.'
 title: The New York Time,
-title: September 7, 2015.
+edition: September 7, 2015.
 </t>
         </is>
       </c>
@@ -1932,8 +1932,8 @@
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: 'School Adjustment of Children with Congenital Heart Disease' (PhD Diss.
-title: Pittsburgh, PA
-location: 1988).
+title: Pittsburgh, PA: University of Pittsburgh,
+year: 1988).
 </t>
         </is>
       </c>

--- a/Output_of_NUS_Parse/verified_Ref_classification_samples2Nov.xlsx
+++ b/Output_of_NUS_Parse/verified_Ref_classification_samples2Nov.xlsx
@@ -476,7 +476,7 @@
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
 title: Chicago:
-title: The University of Chicago Press;
+booktitle: The University of Chicago Press;
 year: 1958.
 </t>
         </is>
@@ -520,9 +520,9 @@
           <t xml:space="preserve">author: Bidani A, Crandall ED.
 title: Quantitative aspects of capillary CO2 exchange. Respiratory Physiology: An Analytical Approach.
 title: In: Chang HR, Paiva M, eds. 2nd ed.
-title: New York, NY:
+publisher: New York, NY:
 publisher: Marcel Dekker;
-title: 1989:371-419.
+publisher: 1989:371-419.
 </t>
         </is>
       </c>
@@ -562,9 +562,9 @@
       <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
-year: 2015.
+title: 2015.
 title: “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
-title: The New York Times,
+booktitle: The New York Times,
 edition: September 7, 2015.
 </t>
         </is>
@@ -605,7 +605,7 @@
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-title: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
+proceeding: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -647,7 +647,7 @@
           <t xml:space="preserve">author: Youssef NM
 title: (1988).
 title: School adjustment of children with congenital heart disease [dissertation].
-title: Pittsburgh, PA:
+publisher: Pittsburgh, PA:
 publisher: University of Pittsburgh.
 </t>
         </is>
@@ -688,10 +688,10 @@
       <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
-year: 1996.
+title: 1996.
 title: "Population requirements for capitation planning in cardiac surgery."
 booktitle: Arch Pediatr Adolesc Med. 150, no.2,
-proceeding: 257–259.
+volume: 257–259.
 </t>
         </is>
       </c>
@@ -733,8 +733,8 @@
           <t xml:space="preserve">author: Davenport, H.W.
 title: The ABC of Acid-Base Chemistry.
 year: 1958.
-title: Chicago:
-title: The University of Chicago Press.
+location: Chicago:
+booktitle: The University of Chicago Press.
 </t>
         </is>
       </c>
@@ -777,11 +777,11 @@
       <c r="G10" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
-year: 1989.
+title: 1989.
 title: "Quantitative aspects of capillary CO2 exchange."
-title: In Respiratory Physiology: An Analytical Approach.
+booktitle: In Respiratory Physiology: An Analytical Approach.
 editor: edited by HR Chang, and M Paiva,
-edition: 371–419.
+pages: 371–419.
 publisher: New York, NY:
 publisher: Marcel Dekker.
 </t>
@@ -823,9 +823,9 @@
       <c r="G11" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
-year: 2015.
+title: 2015.
 title: “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
-title: The New York Times,
+booktitle: The New York Times,
 edition: September 7, 2015.
 </t>
         </is>
@@ -869,8 +869,8 @@
           <t xml:space="preserve">author: Weber KJ, and J Lee, and R Decresce.
 title: 2004. 6 April 2004.
 title: "Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success."
-title: In: 25th Annual
-title: American Association of Endocrine Surgeons Meeting, Charlottesville, VA,
+booktitle: In: 25th Annual
+proceeding: American Association of Endocrine Surgeons Meeting, Charlottesville, VA,
 </t>
         </is>
       </c>
@@ -911,10 +911,10 @@
       <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
-year: 1988.
+title: 1988.
 title: "School Adjustment of Children with Congenital Heart Disease."
-title: PhD.
-title: diss., Pittsburgh, PA:
+location: PhD.
+publisher: diss., Pittsburgh, PA:
 publisher: University of Pittsburgh.
 </t>
         </is>
@@ -957,8 +957,8 @@
           <t xml:space="preserve">author: Davis J.T., Allen H.D., &amp; Powers J.D.
 title: (1996). 150(2),
 title: Population requirements for capitation planning in cardiac surgery.
-title: Arch Pediatr Adolesc Med,
-proceeding: 257–259.
+journal: Arch Pediatr Adolesc Med,
+volume: 257–259.
 </t>
         </is>
       </c>
@@ -1000,8 +1000,8 @@
           <t xml:space="preserve">author: Davenport, H.W.
 title: (1958).
 title: The ABC of acid-base chemistry.
-title: Chicago:
-title: The University of Chicago Press.
+location: Chicago:
+booktitle: The University of Chicago Press.
 </t>
         </is>
       </c>
@@ -1046,8 +1046,8 @@
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
 title: (1989).
 title: Quantitative aspects of capillary CO2 exchange.
-title: In H.R. Chang, &amp; M. Paiva (Eds.).
-title: Respiratory physiology: An analytical approach
+booktitle: In H.R. Chang, &amp; M. Paiva (Eds.).
+booktitle: Respiratory physiology: An analytical approach
 edition: (371–419).
 publisher: New York, NY:
 publisher: Marcel Dekker.
@@ -1091,7 +1091,7 @@
           <t xml:space="preserve">author: Baker, Peter.
 title: (2015). September 7, 2015.
 title: Obama orders federal contractors to provide workers paid sick leave.
-title: The New York Times,
+booktitle: The New York Times,
 </t>
         </is>
       </c>
@@ -1132,7 +1132,7 @@
           <t xml:space="preserve">author: Weber KJ, and J Lee, &amp; R Decresce.
 title: (2004).
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-title: In 25th Annual American association of endocrine surgeons meeting, 6 April 2004, Charlottesville, VA.
+booktitle: In 25th Annual American association of endocrine surgeons meeting, 6 April 2004, Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -1175,7 +1175,7 @@
           <t xml:space="preserve">author: Youssef NM.
 title: (1988).
 title: School adjustment of children with congenital heart disease (PhD.
-pages: Thesis).
+edition: Thesis).
 publisher: Pittsburgh, PA:
 publisher: University of Pittsburgh.
 </t>
@@ -1260,7 +1260,7 @@
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
 title: Chicago:
-title: The University of Chicago Press;
+booktitle: The University of Chicago Press;
 year: 1958.
 </t>
         </is>
@@ -1345,7 +1345,7 @@
           <t xml:space="preserve">author: Baker P.
 title: Obama orders federal contractors to provide workers paid sick leave.
 title: The New York Times,
-edition: September 7, 2015.
+booktitle: September 7, 2015.
 </t>
         </is>
       </c>
@@ -1385,7 +1385,7 @@
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-title: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
+proceeding: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -1469,9 +1469,9 @@
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
 title: "Population Requirements for Capitation Planning in Cardiac Surgery."
-location: Arch Pediatr Adolesc Med 150.2
-journal: (1996):
-proceeding: 257–259.
+title: Arch Pediatr Adolesc Med 150.2
+pages: (1996):
+volume: 257–259.
 </t>
         </is>
       </c>
@@ -1557,11 +1557,11 @@
           <t xml:space="preserve">author: Bidani A, and Crandall ED.
 title: "Quantitative aspects of capillary CO2 exchange."
 title: Respiratory Physiology: An Analytical Approach.
-title: Ed. Chang HR, and M Paiva.
+editor: Ed. Chang HR, and M Paiva.
 publisher: New York, NY:
 publisher: Marcel Dekker,
 year: 1989.
-title: 371-419.
+publisher: 371-419.
 </t>
         </is>
       </c>
@@ -1602,7 +1602,7 @@
           <t xml:space="preserve">author: Baker P.
 title: "Obama orders federal contractors to provide workers paid sick leave."
 title: The New York Times,
-edition: September 7, 2015.
+booktitle: September 7, 2015.
 </t>
         </is>
       </c>
@@ -1642,7 +1642,7 @@
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, and Decresce R.
 title: 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
-title: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
+proceeding: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -1726,7 +1726,7 @@
 year: (1996)
 title: 'Population Requirements for Capitation Planning in Cardiac Surgery.'
 booktitle: Arch Pediatr Adolesc Med 150,
-proceeding: 257–259.
+volume: 257–259.
 </t>
         </is>
       </c>
@@ -1768,8 +1768,8 @@
           <t xml:space="preserve">author: Davenport HW (
 year: 1958)
 title: The ABC of Acid-Base Chemistry
-title: (Chicago, The
-editor: University of Chicago Press).
+editor: (Chicago, The
+publisher: University of Chicago Press).
 </t>
         </is>
       </c>
@@ -1811,7 +1811,7 @@
           <t xml:space="preserve">author: Bidani A, and Crandall, ED
 year: (1989)
 title: 'Quantitative Aspects of Capillary CO2 Exchange' in HR Chang, and M Paiva (eds), Respiratory Physiology: An Analytical Approach (New
-title: York, NY:
+publisher: York, NY:
 location: Marcel Dekker).
 </t>
         </is>
@@ -1853,7 +1853,7 @@
           <t xml:space="preserve">author: Baker P.
 title: 'Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.'
 title: The New York Time,
-edition: September 7, 2015.
+booktitle: September 7, 2015.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, and Decresce R.
 title: 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
-title: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
+proceeding: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
 </t>
         </is>
       </c>
@@ -1933,7 +1933,7 @@
           <t xml:space="preserve">author: Youssef NM.
 title: 'School Adjustment of Children with Congenital Heart Disease' (PhD Diss.
 title: Pittsburgh, PA: University of Pittsburgh,
-year: 1988).
+note: 1988).
 </t>
         </is>
       </c>

--- a/Output_of_NUS_Parse/verified_Ref_classification_samples2Nov.xlsx
+++ b/Output_of_NUS_Parse/verified_Ref_classification_samples2Nov.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,32 +369,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Style</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>predicted</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Analysis</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>verified</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>matched</t>
         </is>
       </c>
     </row>
@@ -405,17 +415,20 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Davis JT, Allen HD, Powers JD. Population requirements for capitation planning in cardiac surgery. Arch Pediatr Adolesc Med. 1996;150:257–259.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis JT, Allen HD, Powers JD.
 title: Population requirements for capitation planning in cardiac surgery.
@@ -424,17 +437,25 @@
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Partially Correct (Author,Title)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis JT, Allen HD, Powers JD.
 title: Population requirements for capitation planning in cardiac surgery.
-title: Arch Pediatr Adolesc Med.
+publisher: Arch Pediatr Adolesc Med.
 location: 1996;150:257–259.
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davis JT, Allen HD, Powers JD.
+title:  Population requirements for capitation planning in cardiac surgery.
+publisher:  Arch Pediatr Adolesc Med.
 </t>
         </is>
       </c>
@@ -446,17 +467,20 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Davenport HW. The ABC of Acid-Base Chemistry. Chicago: The University of Chicago Press; 1958.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
@@ -466,18 +490,25 @@
 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
-title: Chicago:
-booktitle: The University of Chicago Press;
-year: 1958.
+publisher: Chicago:
+location: The University of Chicago Press;
+pages: 1958.
+</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davenport HW.
+title:  The ABC of Acid-Base Chemistry.
 </t>
         </is>
       </c>
@@ -489,17 +520,20 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Bidani A, Crandall ED. Quantitative aspects of capillary CO2 exchange. In: Chang HR, Paiva M, eds. Respiratory Physiology: An Analytical Approach. 2nd ed. New York, NY: Marcel Dekker; 1989:371-419.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, Crandall ED.
 title: Quantitative aspects of capillary CO2 exchange. Respiratory Physiology: An Analytical Approach.
@@ -510,19 +544,26 @@
 </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Partially Correct (Author,Title, Location, Publisher)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, Crandall ED.
 title: Quantitative aspects of capillary CO2 exchange. Respiratory Physiology: An Analytical Approach.
 title: In: Chang HR, Paiva M, eds. 2nd ed.
 publisher: New York, NY:
-publisher: Marcel Dekker;
+location: Marcel Dekker;
 publisher: 1989:371-419.
+</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Bidani A, Crandall ED.
+title:  Quantitative aspects of capillary CO2 exchange. Respiratory Physiology: An Analytical Approach.
 </t>
         </is>
       </c>
@@ -534,17 +575,20 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Baker, Peter. 2015. “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.” The New York Times, September 7, 2015.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
 date: 2015.
@@ -554,18 +598,26 @@
 </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
-title: 2015.
+pages: 2015.
 title: “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
-booktitle: The New York Times,
-edition: September 7, 2015.
+publisher: The New York Times,
+volume: September 7, 2015.
+</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Baker, Peter.
+title:  “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
+publisher:  The New York Times,
 </t>
         </is>
       </c>
@@ -577,18 +629,21 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Weber KJ, Lee J, Decresce R. Intraoperative PTH
 monitoring in parathyroid hyperplasia requires stricter criteria for success. In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
@@ -596,16 +651,23 @@
 </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-proceeding: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
+title: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
+</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Weber KJ, Lee J, Decresce R.
+title:  Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
 </t>
         </is>
       </c>
@@ -617,17 +679,20 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Youssef NM (1988). School adjustment of children with congenital heart disease [dissertation]. Pittsburgh, PA: University of Pittsburgh.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM
 year: (1988).
@@ -637,21 +702,30 @@
 </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM
-title: (1988).
+year: (1988).
 title: School adjustment of children with congenital heart disease [dissertation].
 publisher: Pittsburgh, PA:
 publisher: University of Pittsburgh.
 </t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Youssef NM
+year:  (1988).
+title:  School adjustment of children with congenital heart disease [dissertation].
+publisher:  University of Pittsburgh.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -660,17 +734,20 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CMS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Davis J.T., H.D. Allen, and J.D. Powers. 1996. "Population requirements for capitation planning in cardiac surgery." Arch Pediatr Adolesc Med. 150, no.2, 257–259.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
 year: 1996.
@@ -680,18 +757,26 @@
 </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Year, Title, Pages)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
-title: 1996.
+pages: 1996.
 title: "Population requirements for capitation planning in cardiac surgery."
 booktitle: Arch Pediatr Adolesc Med. 150, no.2,
-volume: 257–259.
+pages: 257–259.
+</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davis J.T., H.D. Allen, and J.D. Powers.
+title:  "Population requirements for capitation planning in cardiac surgery."
+pages:  257–259.
 </t>
         </is>
       </c>
@@ -703,17 +788,20 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CMS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Davenport, H.W. The ABC of Acid-Base Chemistry. 1958. Chicago: The University of Chicago Press.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport, H.W.
 title: The ABC of Acid-Base Chemistry.
@@ -723,18 +811,26 @@
 </t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport, H.W.
 title: The ABC of Acid-Base Chemistry.
-year: 1958.
-location: Chicago:
-booktitle: The University of Chicago Press.
+pages: 1958.
+publisher: Chicago:
+publisher: The University of Chicago Press.
+</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davenport, H.W.
+title:  The ABC of Acid-Base Chemistry.
+publisher:  The University of Chicago Press.
 </t>
         </is>
       </c>
@@ -746,17 +842,20 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>CMS</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bidani A, and ED Crandall. 1989. "Quantitative aspects of capillary CO2 exchange." In Respiratory Physiology: An Analytical Approach. edited by HR Chang, and M Paiva, 371–419. New York, NY: Marcel Dekker.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
 year: 1989.
@@ -769,21 +868,33 @@
 </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
-title: 1989.
+pages: 1989.
 title: "Quantitative aspects of capillary CO2 exchange."
 booktitle: In Respiratory Physiology: An Analytical Approach.
 editor: edited by HR Chang, and M Paiva,
 pages: 371–419.
-publisher: New York, NY:
+location: New York, NY:
 publisher: Marcel Dekker.
+</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Bidani A, and ED Crandall.
+title:  "Quantitative aspects of capillary CO2 exchange."
+booktitle:  In Respiratory Physiology: An Analytical Approach.
+editor:  edited by HR Chang, and M Paiva,
+pages:  371–419.
+location:  New York, NY:
+publisher:  Marcel Dekker.
 </t>
         </is>
       </c>
@@ -795,17 +906,20 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CMS</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Baker, Peter. 2015. “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.” The New York Times, September 7, 2015.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
 date: 2015.
@@ -815,18 +929,26 @@
 </t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
-title: 2015.
+pages: 2015.
 title: “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
-booktitle: The New York Times,
-edition: September 7, 2015.
+publisher: The New York Times,
+volume: September 7, 2015.
+</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Baker, Peter.
+title:  “Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.”
+publisher:  The New York Times,
 </t>
         </is>
       </c>
@@ -838,18 +960,21 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>CMS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Weber KJ, and J Lee, and R Decresce. 2004. "Intraoperative PTH
 monitoring in parathyroid hyperplasia requires stricter criteria for success." In: 25th Annual American Association of Endocrine Surgeons Meeting, Charlottesville, VA, 6 April 2004.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, and J Lee, and R Decresce.
 year: 2004. 6 April 2004.
@@ -859,12 +984,12 @@
 </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, and J Lee, and R Decresce.
 title: 2004. 6 April 2004.
@@ -874,6 +999,14 @@
 </t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Weber KJ, and J Lee, and R Decresce.
+title:  "Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success."
+booktitle:  In: 25th Annual
+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -882,17 +1015,20 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CMS</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Youssef NM. 1988. "School Adjustment of Children with Congenital Heart Disease." PhD. diss., Pittsburgh, PA: University of Pittsburgh.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 year: 1988.
@@ -903,19 +1039,28 @@
 </t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title, Year, Publisher)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
-title: 1988.
+pages: 1988.
 title: "School Adjustment of Children with Congenital Heart Disease."
-location: PhD.
-publisher: diss., Pittsburgh, PA:
+month: PhD.
+location: diss., Pittsburgh, PA:
 publisher: University of Pittsburgh.
+</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Youssef NM.
+title:  "School Adjustment of Children with Congenital Heart Disease."
+location:  diss., Pittsburgh, PA:
+publisher:  University of Pittsburgh.
 </t>
         </is>
       </c>
@@ -927,17 +1072,20 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>APA</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Davis J.T., Allen H.D., &amp; Powers J.D. (1996). Population requirements for capitation planning in cardiac surgery. Arch Pediatr Adolesc Med, 150(2), 257–259.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., Allen H.D., &amp; Powers J.D.
 year: (1996). 150(2),
@@ -947,18 +1095,27 @@
 </t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title, Pages)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., Allen H.D., &amp; Powers J.D.
-title: (1996). 150(2),
+year: (1996). 150(2),
 title: Population requirements for capitation planning in cardiac surgery.
 journal: Arch Pediatr Adolesc Med,
-volume: 257–259.
+pages: 257–259.
+</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davis J.T., Allen H.D., &amp; Powers J.D.
+year:  (1996). 150(2),
+title:  Population requirements for capitation planning in cardiac surgery.
+pages:  257–259.
 </t>
         </is>
       </c>
@@ -970,17 +1127,20 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>APA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Davenport, H.W. (1958). The ABC of acid-base chemistry. Chicago: The University of Chicago Press.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport, H.W.
 year: (1958).
@@ -990,18 +1150,27 @@
 </t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport, H.W.
-title: (1958).
+year: (1958).
 title: The ABC of acid-base chemistry.
-location: Chicago:
-booktitle: The University of Chicago Press.
+publisher: Chicago:
+publisher: The University of Chicago Press.
+</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davenport, H.W.
+year:  (1958).
+title:  The ABC of acid-base chemistry.
+publisher:  The University of Chicago Press.
 </t>
         </is>
       </c>
@@ -1013,17 +1182,20 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>APA</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Bidani A, and ED Crandall. (1989). Quantitative aspects of capillary CO2 exchange. In H.R. Chang, &amp; M. Paiva (Eds.). Respiratory physiology: An analytical approach (371–419). New York, NY: Marcel Dekker.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
 year: (1989).
@@ -1036,21 +1208,34 @@
 </t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and ED Crandall.
-title: (1989).
+year: (1989).
 title: Quantitative aspects of capillary CO2 exchange.
-booktitle: In H.R. Chang, &amp; M. Paiva (Eds.).
+editor: In H.R. Chang, &amp; M. Paiva (Eds.).
 booktitle: Respiratory physiology: An analytical approach
-edition: (371–419).
-publisher: New York, NY:
+pages: (371–419).
+location: New York, NY:
 publisher: Marcel Dekker.
+</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Bidani A, and ED Crandall.
+year:  (1989).
+title:  Quantitative aspects of capillary CO2 exchange.
+editor:  In H.R. Chang, &amp; M. Paiva (Eds.).
+booktitle:  Respiratory physiology: An analytical approach
+pages:  (371–419).
+location:  New York, NY:
+publisher:  Marcel Dekker.
 </t>
         </is>
       </c>
@@ -1062,17 +1247,20 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>APA</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Baker, Peter. (2015). Obama orders federal contractors to provide workers paid sick leave. The New York Times, September 7, 2015.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
 year: (2015). September 7, 2015.
@@ -1081,17 +1269,25 @@
 </t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker, Peter.
 title: (2015). September 7, 2015.
 title: Obama orders federal contractors to provide workers paid sick leave.
-booktitle: The New York Times,
+publisher: The New York Times,
+</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Baker, Peter.
+title:  Obama orders federal contractors to provide workers paid sick leave.
+publisher:  The New York Times,
 </t>
         </is>
       </c>
@@ -1103,17 +1299,20 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>APA</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Weber KJ, and J Lee, &amp; R Decresce. (2004). Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success. In 25th Annual American association of endocrine surgeons meeting, 6 April 2004, Charlottesville, VA.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, and J Lee, &amp; R Decresce.
 year: (2004).
@@ -1122,17 +1321,25 @@
 </t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, and J Lee, &amp; R Decresce.
-title: (2004).
+year: (2004).
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
 booktitle: In 25th Annual American association of endocrine surgeons meeting, 6 April 2004, Charlottesville, VA.
+</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Weber KJ, and J Lee, &amp; R Decresce.
+year:  (2004).
+title:  Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
 </t>
         </is>
       </c>
@@ -1144,17 +1351,20 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>APA</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Youssef NM. (1988). School adjustment of children with congenital heart disease (PhD. Thesis). Pittsburgh, PA: University of Pittsburgh.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 year: (1988).
@@ -1165,19 +1375,29 @@
 </t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Partially Correct (author, year, location, publisher)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
-title: (1988).
+year: (1988).
 title: School adjustment of children with congenital heart disease (PhD.
-edition: Thesis).
-publisher: Pittsburgh, PA:
+pages: Thesis).
+location: Pittsburgh, PA:
 publisher: University of Pittsburgh.
+</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Youssef NM.
+year:  (1988).
+title:  School adjustment of children with congenital heart disease (PhD.
+location:  Pittsburgh, PA:
+publisher:  University of Pittsburgh.
 </t>
         </is>
       </c>
@@ -1189,17 +1409,20 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>AMA</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Davis JT, Allen HD, Powers JD. Population requirements for capitation planning in cardiac surgery. Arch Pediatr Adolesc Med. 1996;150:257–259.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis JT, Allen HD, Powers JD.
 title: Population requirements for capitation planning in cardiac surgery.
@@ -1208,17 +1431,25 @@
 </t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Partially Correct (author, title)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis JT, Allen HD, Powers JD.
 title: Population requirements for capitation planning in cardiac surgery.
-title: Arch Pediatr Adolesc Med.
+publisher: Arch Pediatr Adolesc Med.
 location: 1996;150:257–259.
+</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davis JT, Allen HD, Powers JD.
+title:  Population requirements for capitation planning in cardiac surgery.
+publisher:  Arch Pediatr Adolesc Med.
 </t>
         </is>
       </c>
@@ -1230,17 +1461,20 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>AMA</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Davenport HW. The ABC of Acid-Base Chemistry. Chicago: The University of Chicago Press; 1958.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
@@ -1250,18 +1484,25 @@
 </t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
-title: Chicago:
-booktitle: The University of Chicago Press;
-year: 1958.
+publisher: Chicago:
+location: The University of Chicago Press;
+pages: 1958.
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davenport HW.
+title:  The ABC of Acid-Base Chemistry.
 </t>
         </is>
       </c>
@@ -1273,17 +1514,20 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>AMA</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Bidani A, Crandall ED. Quantitative aspects of capillary CO2 exchange. In: Chang HR, Paiva M, eds. Respiratory Physiology: An Analytical Approach. New York, NY: Marcel Dekker; 1989:371-419.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, Crandall ED.
 title: Quantitative aspects of capillary CO2 exchange.
@@ -1293,18 +1537,26 @@
 </t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Partially Correct (author, title)</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, Crandall ED.
 title: Quantitative aspects of capillary CO2 exchange.
 title: In: Chang HR, Paiva M, eds. Respiratory Physiology: An Analytical Approach. New York, NY:
 publisher: Marcel Dekker;
-booktitle: 1989:371-419.
+publisher: 1989:371-419.
+</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Bidani A, Crandall ED.
+title:  Quantitative aspects of capillary CO2 exchange.
+publisher:  Marcel Dekker;
 </t>
         </is>
       </c>
@@ -1316,17 +1568,20 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>AMA</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Baker P. Obama orders federal contractors to provide workers paid sick leave. The New York Times, September 7, 2015.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker P.
 title: Obama orders federal contractors to provide workers paid sick leave.
@@ -1335,17 +1590,24 @@
 </t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t xml:space="preserve">Partially Correct </t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker P.
 title: Obama orders federal contractors to provide workers paid sick leave.
 title: The New York Times,
-booktitle: September 7, 2015.
+location: September 7, 2015.
+</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Baker P.
+title:  Obama orders federal contractors to provide workers paid sick leave.
 </t>
         </is>
       </c>
@@ -1357,18 +1619,21 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>AMA</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Weber KJ, Lee J, Decresce R. Intraoperative PTH
 monitoring in parathyroid hyperplasia requires stricter criteria for success. In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
@@ -1376,16 +1641,23 @@
 </t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Partially Correct (Author, title)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, Decresce R.
 title: Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
-proceeding: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
+title: In: 25th Annual American Association of Endocrine Surgeons Meeting; 6 April 2004; Charlottesville, VA.
+</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Weber KJ, Lee J, Decresce R.
+title:  Intraoperative PTH monitoring in parathyroid hyperplasia requires stricter criteria for success.
 </t>
         </is>
       </c>
@@ -1397,17 +1669,20 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>AMA</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Youssef NM. School Adjustment of Children with Congenital Heart Disease [dissertation]. Pittsburgh, PA: University of Pittsburgh; 1988.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: School Adjustment of Children with Congenital Heart Disease [dissertation].
@@ -1417,18 +1692,25 @@
 </t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: School Adjustment of Children with Congenital Heart Disease [dissertation].
-title: Pittsburgh, PA:
-publisher: University of Pittsburgh;
-year: 1988.
+publisher: Pittsburgh, PA:
+location: University of Pittsburgh;
+pages: 1988.
+</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Youssef NM.
+title:  School Adjustment of Children with Congenital Heart Disease [dissertation].
 </t>
         </is>
       </c>
@@ -1440,17 +1722,20 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MLA</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Davis J.T., H.D. Allen, and J.D. Powers. "Population Requirements for Capitation Planning in Cardiac Surgery." Arch Pediatr Adolesc Med 150.2 (1996): 257–259.</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
 title: "Population Requirements for Capitation Planning in Cardiac Surgery."
@@ -1460,18 +1745,26 @@
 </t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title, Year, Pages)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis J.T., H.D. Allen, and J.D. Powers.
 title: "Population Requirements for Capitation Planning in Cardiac Surgery."
 title: Arch Pediatr Adolesc Med 150.2
-pages: (1996):
-volume: 257–259.
+note: (1996):
+pages: 257–259.
+</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davis J.T., H.D. Allen, and J.D. Powers.
+title:  "Population Requirements for Capitation Planning in Cardiac Surgery."
+pages:  257–259.
 </t>
         </is>
       </c>
@@ -1483,17 +1776,20 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MLA</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Davenport HW. The ABC of Acid-Base Chemistry. Chicago: The University of Chicago Press, 1958.</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
@@ -1502,17 +1798,24 @@
 </t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title, Year)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW.
 title: The ABC of Acid-Base Chemistry.
 title: Chicago: The University of Chicago Press,
-year: 1958.
+pages: 1958.
+</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davenport HW.
+title:  The ABC of Acid-Base Chemistry.
 </t>
         </is>
       </c>
@@ -1524,17 +1827,20 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MLA</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Bidani A, and Crandall ED. "Quantitative aspects of capillary CO2 exchange." Respiratory Physiology: An Analytical Approach. Ed. Chang HR, and M Paiva. New York, NY: Marcel Dekker, 1989. 371-419.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and Crandall ED.
 title: "Quantitative aspects of capillary CO2 exchange."
@@ -1547,21 +1853,29 @@
 </t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and Crandall ED.
 title: "Quantitative aspects of capillary CO2 exchange."
 title: Respiratory Physiology: An Analytical Approach.
-editor: Ed. Chang HR, and M Paiva.
+journal: Ed. Chang HR, and M Paiva.
 publisher: New York, NY:
 publisher: Marcel Dekker,
-year: 1989.
+pages: 1989.
 publisher: 371-419.
+</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Bidani A, and Crandall ED.
+title:  "Quantitative aspects of capillary CO2 exchange."
+publisher:  Marcel Dekker,
 </t>
         </is>
       </c>
@@ -1573,17 +1887,20 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MLA</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Baker P. "Obama orders federal contractors to provide workers paid sick leave." The New York Times, September 7, 2015.</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker P.
 title: "Obama orders federal contractors to provide workers paid sick leave."
@@ -1592,17 +1909,24 @@
 </t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker P.
 title: "Obama orders federal contractors to provide workers paid sick leave."
 title: The New York Times,
-booktitle: September 7, 2015.
+location: September 7, 2015.
+</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Baker P.
+title:  "Obama orders federal contractors to provide workers paid sick leave."
 </t>
         </is>
       </c>
@@ -1614,18 +1938,21 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MLA</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Weber KJ, Lee J, and Decresce R. 'Intraoperative PTH
 Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.' 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, and Decresce R.
 title: 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
@@ -1633,16 +1960,23 @@
 </t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title)</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, and Decresce R.
 title: 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
-proceeding: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
+title: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
+</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Weber KJ, Lee J, and Decresce R.
+title:  'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
 </t>
         </is>
       </c>
@@ -1654,17 +1988,20 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MLA</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Youssef NM. School Adjustment of Children with Congenital Heart Disease. PhD Diss. Pittsburgh, PA: University of Pittsburgh, 1988.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: School Adjustment of Children with Congenital Heart Disease.
@@ -1673,17 +2010,24 @@
 </t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title, Year)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: School Adjustment of Children with Congenital Heart Disease.
 title: PhD Diss. Pittsburgh, PA: University of Pittsburgh,
-year: 1988.
+pages: 1988.
+</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Youssef NM.
+title:  School Adjustment of Children with Congenital Heart Disease.
 </t>
         </is>
       </c>
@@ -1695,17 +2039,20 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Hart's Rule (OUP)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Davis, JT, Allen, HD, and Powers, JD (1996) 'Population Requirements for Capitation Planning in Cardiac Surgery.' Arch Pediatr Adolesc Med 150, 257–259.</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis, JT, Allen, HD, and Powers, JD
 date: (1996)
@@ -1715,18 +2062,27 @@
 </t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title, Year, pages)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davis, JT, Allen, HD, and Powers, JD
-year: (1996)
+title: (1996)
 title: 'Population Requirements for Capitation Planning in Cardiac Surgery.'
-booktitle: Arch Pediatr Adolesc Med 150,
-volume: 257–259.
+journal: Arch Pediatr Adolesc Med 150,
+pages: 257–259.
+</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davis, JT, Allen, HD, and Powers, JD
+title:  'Population Requirements for Capitation Planning in Cardiac Surgery.'
+journal:  Arch Pediatr Adolesc Med 150,
+pages:  257–259.
 </t>
         </is>
       </c>
@@ -1738,17 +2094,20 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Hart's Rule (OUP)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Davenport HW ( 1958) The ABC of Acid-Base Chemistry (Chicago, The University of Chicago Press).</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW (
 year: 1958)
@@ -1758,18 +2117,27 @@
 </t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Year, Title)</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Davenport HW (
 year: 1958)
 title: The ABC of Acid-Base Chemistry
-editor: (Chicago, The
+publisher: (Chicago, The
 publisher: University of Chicago Press).
+</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Davenport HW (
+year:  1958)
+title:  The ABC of Acid-Base Chemistry
+publisher:  University of Chicago Press).
 </t>
         </is>
       </c>
@@ -1781,17 +2149,20 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Hart's Rule (OUP)</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Bidani A, and Crandall, ED (1989) 'Quantitative Aspects of Capillary CO2 Exchange' in HR Chang, and M Paiva (eds), Respiratory Physiology: An Analytical Approach (New York, NY: Marcel Dekker).</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and Crandall, ED
 year: (1989)
@@ -1801,18 +2172,26 @@
 </t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Year)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Bidani A, and Crandall, ED
-year: (1989)
+title: (1989)
 title: 'Quantitative Aspects of Capillary CO2 Exchange' in HR Chang, and M Paiva (eds), Respiratory Physiology: An Analytical Approach (New
 publisher: York, NY:
-location: Marcel Dekker).
+publisher: Marcel Dekker).
+</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Bidani A, and Crandall, ED
+title:  'Quantitative Aspects of Capillary CO2 Exchange' in HR Chang, and M Paiva (eds), Respiratory Physiology: An Analytical Approach (New
+publisher:  Marcel Dekker).
 </t>
         </is>
       </c>
@@ -1824,17 +2203,20 @@
       <c r="B35" t="n">
         <v>33</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Hart's Rule (OUP)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Baker P. 'Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.' The New York Time, September 7, 2015.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker P.
 title: 'Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.'
@@ -1843,17 +2225,24 @@
 </t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Partially Correct</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Baker P.
 title: 'Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.'
 title: The New York Time,
-booktitle: September 7, 2015.
+location: September 7, 2015.
+</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Baker P.
+title:  'Obama Orders Federal Contractors to Provide Workers Paid Sick Leave.'
 </t>
         </is>
       </c>
@@ -1865,17 +2254,20 @@
       <c r="B36" t="n">
         <v>34</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Hart's Rule (OUP)</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Weber KJ, Lee J, and Decresce R. 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.' 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, and Decresce R.
 title: 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
@@ -1883,16 +2275,23 @@
 </t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Partially Correct (Author, Title)</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Weber KJ, Lee J, and Decresce R.
 title: 'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
-proceeding: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
+title: 25th Annual American Association of Endocrine Surgeons Meeting, 6 April 2004; Charlottesville, VA.
+</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Weber KJ, Lee J, and Decresce R.
+title:  'Intraoperative PTH Monitoring in Parathyroid Hyperplasia Requires Stricter Criteria for Success.'
 </t>
         </is>
       </c>
@@ -1904,17 +2303,20 @@
       <c r="B37" t="n">
         <v>35</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Hart's Rule (OUP)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Youssef NM. 'School Adjustment of Children with Congenital Heart Disease' (PhD Diss. Pittsburgh, PA: University of Pittsburgh, 1988).</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: 'School Adjustment of Children with Congenital Heart Disease' (PhD Diss.
@@ -1923,17 +2325,24 @@
 </t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Incorrect</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">author: Youssef NM.
 title: 'School Adjustment of Children with Congenital Heart Disease' (PhD Diss.
 title: Pittsburgh, PA: University of Pittsburgh,
-note: 1988).
+pages: 1988).
+</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">author:  Youssef NM.
+title:  'School Adjustment of Children with Congenital Heart Disease' (PhD Diss.
 </t>
         </is>
       </c>
